--- a/datasets/Superficie afectada por incendios reportados, por jurisdicción.xlsx
+++ b/datasets/Superficie afectada por incendios reportados, por jurisdicción.xlsx
@@ -1,13 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede4\OneDrive\Documents\UNRN\Ciencia de Datos - 25.1\Proyecto Final\Analisis_PrediccionIncendiosForestales\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CF2AD4-B11F-46A4-8748-1A3F1BC26D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="rii_c_hectareas_incendios_prov_" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Porcentaje de superficie afecta" sheetId="2" r:id="rId5"/>
+    <sheet name="rii_c_hectareas_incendios_prov_" sheetId="1" r:id="rId1"/>
+    <sheet name="Porcentaje de superficie afecta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -44,9 +66,6 @@
     <t>hectáreas_2025</t>
   </si>
   <si>
-    <t>hectareas_total</t>
-  </si>
-  <si>
     <t>Buenos Aires</t>
   </si>
   <si>
@@ -123,25 +142,52 @@
   </si>
   <si>
     <t>% suma de hectareas</t>
+  </si>
+  <si>
+    <t>hectareas_promedio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,11 +196,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -168,43 +220,44 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -394,30 +447,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.38"/>
-    <col customWidth="1" min="3" max="3" width="17.38"/>
-    <col customWidth="1" min="4" max="4" width="18.38"/>
-    <col customWidth="1" min="5" max="5" width="19.5"/>
-    <col customWidth="1" min="6" max="6" width="20.38"/>
-    <col customWidth="1" min="7" max="7" width="21.75"/>
-    <col customWidth="1" min="8" max="9" width="18.38"/>
-    <col customWidth="1" min="10" max="10" width="17.75"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,106 +506,106 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>52324</v>
+      </c>
+      <c r="C2" s="1">
+        <v>55036</v>
+      </c>
+      <c r="D2" s="1">
+        <v>24714</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4643</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7033</v>
+      </c>
+      <c r="G2" s="1">
+        <v>142</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4523</v>
+      </c>
+      <c r="I2" s="1">
+        <v>525</v>
+      </c>
+      <c r="J2" s="1">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <f>SUM(B2:J2)/COUNT(B2:J2)</f>
+        <v>16551.666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>52324.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>55036.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>24714.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4643.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7033.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>142.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4523.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>525.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="K2" s="2">
-        <f t="shared" ref="K2:K25" si="1">SUM(B2:J2)</f>
-        <v>148965</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>49</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K25" si="0">SUM(B3:J3)/COUNT(B3:J3)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" s="1">
-        <v>17385.0</v>
+        <v>17385</v>
       </c>
       <c r="C4" s="1">
-        <v>7261.0</v>
+        <v>7261</v>
       </c>
       <c r="D4" s="1">
-        <v>12035.0</v>
+        <v>12035</v>
       </c>
       <c r="E4" s="1">
-        <v>30612.0</v>
+        <v>30612</v>
       </c>
       <c r="F4" s="1">
-        <v>11177.0</v>
+        <v>11177</v>
       </c>
       <c r="G4" s="1">
-        <v>13816.0</v>
+        <v>13816</v>
       </c>
       <c r="H4" s="1">
-        <v>9417.0</v>
+        <v>9417</v>
       </c>
       <c r="I4" s="1">
         <v>5488.78</v>
@@ -556,70 +614,70 @@
         <v>1698.8</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>108890.58</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="0"/>
+        <v>12098.953333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3470</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3896</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3039</v>
+      </c>
+      <c r="E5" s="1">
+        <v>27882</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2687</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12189</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1718</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>7840.1428571428569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
-        <v>3470.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3896.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3039.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>27882.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2687.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12189.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1718.0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="1"/>
-        <v>54881</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" s="1">
-        <v>2566.0</v>
+        <v>2566</v>
       </c>
       <c r="C6" s="1">
-        <v>939.0</v>
+        <v>939</v>
       </c>
       <c r="D6" s="1">
-        <v>13289.0</v>
+        <v>13289</v>
       </c>
       <c r="E6" s="1">
-        <v>6293.0</v>
+        <v>6293</v>
       </c>
       <c r="F6" s="1">
-        <v>17841.0</v>
+        <v>17841</v>
       </c>
       <c r="G6" s="1">
-        <v>80294.0</v>
+        <v>80294</v>
       </c>
       <c r="H6" s="1">
-        <v>18854.0</v>
+        <v>18854</v>
       </c>
       <c r="I6" s="1">
         <v>10915.06</v>
@@ -628,178 +686,179 @@
         <v>51949.64</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
-        <v>202940.7</v>
-      </c>
-    </row>
-    <row r="7">
+        <f t="shared" si="0"/>
+        <v>22548.966666666667</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>34010.0</v>
+        <v>34010</v>
       </c>
       <c r="C7" s="1">
-        <v>8745.0</v>
+        <v>8745</v>
       </c>
       <c r="D7" s="1">
-        <v>16602.0</v>
+        <v>16602</v>
       </c>
       <c r="E7" s="1">
-        <v>153595.0</v>
+        <v>153595</v>
       </c>
       <c r="F7" s="1">
-        <v>57026.0</v>
+        <v>57026</v>
       </c>
       <c r="G7" s="1">
-        <v>4246.0</v>
+        <v>4246</v>
       </c>
       <c r="H7" s="1">
-        <v>24454.0</v>
+        <v>24454</v>
       </c>
       <c r="I7" s="1">
         <v>87091.3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="1"/>
-        <v>385769.3</v>
-      </c>
-    </row>
-    <row r="8">
+        <f t="shared" si="0"/>
+        <v>48221.162499999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>1443.0</v>
+        <v>1443</v>
       </c>
       <c r="C8" s="1">
-        <v>21608.0</v>
+        <v>21608</v>
       </c>
       <c r="D8" s="1">
-        <v>2464.0</v>
+        <v>2464</v>
       </c>
       <c r="E8" s="1">
-        <v>45374.0</v>
+        <v>45374</v>
       </c>
       <c r="F8" s="1">
-        <v>8897.0</v>
+        <v>8897</v>
       </c>
       <c r="G8" s="1">
-        <v>88631.0</v>
+        <v>88631</v>
       </c>
       <c r="H8" s="1">
-        <v>42881.0</v>
+        <v>42881</v>
       </c>
       <c r="I8" s="1">
         <v>21350.99</v>
       </c>
       <c r="J8" s="1">
-        <v>1725.0</v>
+        <v>1725</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="1"/>
-        <v>234373.99</v>
-      </c>
-    </row>
-    <row r="9">
+        <f t="shared" si="0"/>
+        <v>26041.554444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>673</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12768</v>
+      </c>
+      <c r="F9" s="1">
+        <v>26192</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3186</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4796</v>
+      </c>
+      <c r="I9" s="1">
+        <v>442</v>
+      </c>
+      <c r="J9" s="1">
+        <v>772</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>673.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12768.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>26192.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3186.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4796.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>442.0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>772.0</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="1"/>
-        <v>48872</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B10" s="1">
-        <v>5362.0</v>
+        <v>5362</v>
       </c>
       <c r="C10" s="1">
-        <v>3119.0</v>
+        <v>3119</v>
       </c>
       <c r="D10" s="1">
-        <v>14336.0</v>
+        <v>14336</v>
       </c>
       <c r="E10" s="1">
-        <v>30317.0</v>
+        <v>30317</v>
       </c>
       <c r="F10" s="1">
-        <v>18009.0</v>
+        <v>18009</v>
       </c>
       <c r="G10" s="1">
-        <v>8207.0</v>
+        <v>8207</v>
       </c>
       <c r="H10" s="1">
-        <v>30595.0</v>
+        <v>30595</v>
       </c>
       <c r="I10" s="1">
         <v>15390.5</v>
       </c>
       <c r="J10" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="1"/>
-        <v>125423.5</v>
-      </c>
-    </row>
-    <row r="11">
+        <f t="shared" si="0"/>
+        <v>13935.944444444445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>1214.0</v>
+        <v>1214</v>
       </c>
       <c r="C11" s="1">
-        <v>474.0</v>
+        <v>474</v>
       </c>
       <c r="D11" s="1">
-        <v>6018.0</v>
+        <v>6018</v>
       </c>
       <c r="E11" s="1">
-        <v>37805.0</v>
+        <v>37805</v>
       </c>
       <c r="F11" s="1">
-        <v>6043.0</v>
+        <v>6043</v>
       </c>
       <c r="G11" s="1">
-        <v>18728.0</v>
+        <v>18728</v>
       </c>
       <c r="H11" s="1">
-        <v>1757.0</v>
+        <v>1757</v>
       </c>
       <c r="I11" s="1">
         <v>2059.27</v>
@@ -808,34 +867,34 @@
         <v>1.04</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>74099.31</v>
-      </c>
-    </row>
-    <row r="12">
+        <f t="shared" si="0"/>
+        <v>8233.2566666666662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>552902.0</v>
+        <v>552902</v>
       </c>
       <c r="C12" s="1">
-        <v>704125.0</v>
+        <v>704125</v>
       </c>
       <c r="D12" s="1">
-        <v>154177.0</v>
+        <v>154177</v>
       </c>
       <c r="E12" s="1">
-        <v>42329.0</v>
+        <v>42329</v>
       </c>
       <c r="F12" s="1">
-        <v>29738.0</v>
+        <v>29738</v>
       </c>
       <c r="G12" s="1">
-        <v>119718.0</v>
+        <v>119718</v>
       </c>
       <c r="H12" s="1">
-        <v>64366.0</v>
+        <v>64366</v>
       </c>
       <c r="I12" s="1">
         <v>9040.9</v>
@@ -844,70 +903,70 @@
         <v>3569.8</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>1679965.7</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" si="0"/>
+        <v>186662.85555555555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>131535.0</v>
+        <v>131535</v>
       </c>
       <c r="C13" s="1">
-        <v>1514.0</v>
+        <v>1514</v>
       </c>
       <c r="D13" s="1">
-        <v>2071.0</v>
+        <v>2071</v>
       </c>
       <c r="E13" s="1">
-        <v>2397.0</v>
+        <v>2397</v>
       </c>
       <c r="F13" s="1">
-        <v>21138.0</v>
+        <v>21138</v>
       </c>
       <c r="G13" s="1">
-        <v>36904.0</v>
+        <v>36904</v>
       </c>
       <c r="H13" s="1">
-        <v>10438.0</v>
+        <v>10438</v>
       </c>
       <c r="I13" s="1">
         <v>24335.5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="1"/>
-        <v>230332.5</v>
-      </c>
-    </row>
-    <row r="14">
+        <f t="shared" si="0"/>
+        <v>28791.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
-        <v>419147.0</v>
+        <v>419147</v>
       </c>
       <c r="C14" s="1">
-        <v>75393.0</v>
+        <v>75393</v>
       </c>
       <c r="D14" s="1">
-        <v>65022.0</v>
+        <v>65022</v>
       </c>
       <c r="E14" s="1">
-        <v>33345.0</v>
+        <v>33345</v>
       </c>
       <c r="F14" s="1">
-        <v>19006.0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>45038.0</v>
+        <v>19006</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45038</v>
       </c>
       <c r="H14" s="1">
-        <v>108198.0</v>
+        <v>108198</v>
       </c>
       <c r="I14" s="1">
         <v>11286.8</v>
@@ -916,70 +975,70 @@
         <v>14009.9</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
-        <v>790445.7</v>
-      </c>
-    </row>
-    <row r="15">
+        <f t="shared" si="0"/>
+        <v>87827.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
+        <v>246</v>
+      </c>
+      <c r="C15" s="1">
+        <v>323</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1049</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1213</v>
+      </c>
+      <c r="G15" s="1">
+        <v>16050</v>
+      </c>
+      <c r="H15" s="1">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1">
+        <v>107</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1032</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>2473.5555555555557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1">
-        <v>246.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>323.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1049.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2200.0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1213.0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>16050.0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>107.0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1032.0</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="1"/>
-        <v>22262</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B16" s="1">
-        <v>5197.0</v>
+        <v>5197</v>
       </c>
       <c r="C16" s="1">
-        <v>2328.0</v>
+        <v>2328</v>
       </c>
       <c r="D16" s="1">
-        <v>21614.0</v>
+        <v>21614</v>
       </c>
       <c r="E16" s="1">
-        <v>25878.0</v>
+        <v>25878</v>
       </c>
       <c r="F16" s="1">
-        <v>5823.0</v>
+        <v>5823</v>
       </c>
       <c r="G16" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1">
         <v>3141.3</v>
@@ -988,106 +1047,106 @@
         <v>24118.51</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="1"/>
-        <v>88256.81</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" si="0"/>
+        <v>9806.3122222222228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
-        <v>347344.0</v>
+        <v>347344</v>
       </c>
       <c r="C17" s="1">
-        <v>94805.0</v>
+        <v>94805</v>
       </c>
       <c r="D17" s="1">
-        <v>99601.0</v>
+        <v>99601</v>
       </c>
       <c r="E17" s="1">
-        <v>44540.0</v>
+        <v>44540</v>
       </c>
       <c r="F17" s="1">
-        <v>29635.0</v>
+        <v>29635</v>
       </c>
       <c r="G17" s="1">
-        <v>30680.0</v>
+        <v>30680</v>
       </c>
       <c r="H17" s="1">
-        <v>30355.0</v>
+        <v>30355</v>
       </c>
       <c r="I17" s="1">
         <v>17048.8</v>
       </c>
       <c r="J17" s="1">
-        <v>4586.31</v>
+        <v>4586.3100000000004</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="1"/>
-        <v>698595.11</v>
-      </c>
-    </row>
-    <row r="18">
+        <f t="shared" si="0"/>
+        <v>77621.678888888899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
-        <v>7062.0</v>
+        <v>7062</v>
       </c>
       <c r="C18" s="1">
-        <v>1093.0</v>
+        <v>1093</v>
       </c>
       <c r="D18" s="1">
-        <v>2254.0</v>
+        <v>2254</v>
       </c>
       <c r="E18" s="1">
-        <v>71870.0</v>
+        <v>71870</v>
       </c>
       <c r="F18" s="1">
-        <v>4601.0</v>
+        <v>4601</v>
       </c>
       <c r="G18" s="1">
-        <v>125112.0</v>
+        <v>125112</v>
       </c>
       <c r="H18" s="1">
-        <v>7012.0</v>
+        <v>7012</v>
       </c>
       <c r="I18" s="1">
         <v>11251.78</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="1"/>
-        <v>230255.78</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" si="0"/>
+        <v>28781.9725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>20056.0</v>
+        <v>20056</v>
       </c>
       <c r="C19" s="1">
-        <v>16425.0</v>
+        <v>16425</v>
       </c>
       <c r="D19" s="1">
-        <v>667.0</v>
+        <v>667</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1">
-        <v>1321.0</v>
+        <v>1321</v>
       </c>
       <c r="H19" s="1">
-        <v>4204.0</v>
+        <v>4204</v>
       </c>
       <c r="I19" s="1">
         <v>1087.74</v>
@@ -1096,178 +1155,178 @@
         <v>422.5</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="1"/>
-        <v>44183.24</v>
-      </c>
-    </row>
-    <row r="20">
+        <f t="shared" si="0"/>
+        <v>6311.8914285714282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>86842.0</v>
+        <v>86842</v>
       </c>
       <c r="C20" s="1">
-        <v>100712.0</v>
+        <v>100712</v>
       </c>
       <c r="D20" s="1">
-        <v>32278.0</v>
+        <v>32278</v>
       </c>
       <c r="E20" s="1">
-        <v>57199.0</v>
+        <v>57199</v>
       </c>
       <c r="F20" s="1">
-        <v>49314.0</v>
+        <v>49314</v>
       </c>
       <c r="G20" s="1">
-        <v>120556.0</v>
+        <v>120556</v>
       </c>
       <c r="H20" s="1">
-        <v>129186.0</v>
+        <v>129186</v>
       </c>
       <c r="I20" s="1">
         <v>70685.53</v>
       </c>
       <c r="J20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="1"/>
-        <v>646772.53</v>
-      </c>
-    </row>
-    <row r="21">
+        <f t="shared" si="0"/>
+        <v>71863.614444444451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="C21" s="1">
-        <v>4482.0</v>
+        <v>4482</v>
       </c>
       <c r="D21" s="1">
-        <v>3845.0</v>
+        <v>3845</v>
       </c>
       <c r="E21" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="F21" s="1">
-        <v>2263.0</v>
+        <v>2263</v>
       </c>
       <c r="G21" s="1">
-        <v>3220.0</v>
+        <v>3220</v>
       </c>
       <c r="H21" s="1">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="I21" s="1">
         <v>2.1</v>
       </c>
       <c r="J21" s="1">
-        <v>1202.0</v>
+        <v>1202</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="1"/>
-        <v>16039.1</v>
-      </c>
-    </row>
-    <row r="22">
+        <f t="shared" si="0"/>
+        <v>1782.1222222222223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>749</v>
+      </c>
+      <c r="D22" s="1">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1">
+        <v>315640</v>
+      </c>
+      <c r="F22" s="1">
+        <v>103</v>
+      </c>
+      <c r="G22" s="1">
+        <v>44138</v>
+      </c>
+      <c r="H22" s="1">
+        <v>136</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>60147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1">
-        <v>749.0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>116.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>315640.0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>103.0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>44138.0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>136.0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="1"/>
-        <v>360882</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1">
+        <v>7109</v>
+      </c>
+      <c r="C23" s="1">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3980</v>
+      </c>
+      <c r="E23" s="1">
+        <v>28978</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1619</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7283</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4232</v>
+      </c>
+      <c r="I23" s="1">
+        <v>42</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>6668.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1">
-        <v>7109.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>105.0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3980.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>28978.0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1619.0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>7283.0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>4232.0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>53348</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="E24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
-        <v>8200.0</v>
+        <v>8200</v>
       </c>
       <c r="H24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1">
         <v>61.97</v>
@@ -1276,268 +1335,269 @@
         <v>1.5</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="1"/>
-        <v>8485.47</v>
-      </c>
-    </row>
-    <row r="25">
+        <f t="shared" si="0"/>
+        <v>1212.2099999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>886.0</v>
+        <v>886</v>
       </c>
       <c r="C25" s="1">
-        <v>6262.0</v>
+        <v>6262</v>
       </c>
       <c r="D25" s="1">
-        <v>494.0</v>
+        <v>494</v>
       </c>
       <c r="E25" s="1">
-        <v>10190.0</v>
+        <v>10190</v>
       </c>
       <c r="F25" s="1">
-        <v>3233.0</v>
+        <v>3233</v>
       </c>
       <c r="G25" s="1">
-        <v>9437.0</v>
+        <v>9437</v>
       </c>
       <c r="H25" s="1">
-        <v>3426.0</v>
+        <v>3426</v>
       </c>
       <c r="I25" s="1">
         <v>14908.62</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="1"/>
-        <v>48836.62</v>
-      </c>
-    </row>
-    <row r="26">
+        <f t="shared" si="0"/>
+        <v>6104.5775000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.38"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2.3634261518865315E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.023634261518865315</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="6">
-        <v>7.932823656182766E-6</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>7.9328236561827659E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.727619537918924E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.01727619537918924</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="5">
+        <v>8.7072259014993273E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.008707225901499327</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="5">
+        <v>3.2197855715245798E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.0321978557152458</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="5">
+        <v>6.1204796577381322E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.06120479657738132</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="5">
+        <v>3.7184950645318862E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.03718495064531886</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="5">
+        <v>7.7538591544992824E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.007753859154499282</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="5">
+        <v>1.9899250156824783E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.019899250156824783</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="5">
+        <v>1.1756335185496403E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.011756335185496403</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>0.2665374329307128</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3.6543742095754339E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.03654374209575434</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="B14" s="5">
         <v>0.12540932695775892</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3.5320104046788147E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
-        <v>0.0035320104046788147</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="5">
+        <v>1.4002514203744553E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.014002514203744553</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B17" s="5">
         <v>0.11083663629403205</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3.6531569971136289E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
-        <v>0.03653156997113629</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="5">
+        <v>7.0099570295760125E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.0070099570295760125</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B20" s="5">
         <v>0.10261464852306355</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.5447070380776203E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5">
-        <v>0.0025447070380776203</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="5">
+        <v>5.7256265333810979E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.05725626533381098</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="5">
+        <v>8.4640055282007645E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.008464005528200765</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="5">
+        <v>1.3462747429965835E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5">
-        <v>0.0013462747429965835</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="B25" s="5">
-        <v>0.007748245888480168</v>
+        <v>7.7482458884801679E-3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/Superficie afectada por incendios reportados, por jurisdicción.xlsx
+++ b/datasets/Superficie afectada por incendios reportados, por jurisdicción.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede4\OneDrive\Documents\UNRN\Ciencia de Datos - 25.1\Proyecto Final\Analisis_PrediccionIncendiosForestales\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CF2AD4-B11F-46A4-8748-1A3F1BC26D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA277ED-6117-473C-8E2A-CDA52A33BF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
       <c r="D14" s="1">
         <v>65022</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>33345</v>
       </c>
       <c r="F14" s="1">

--- a/datasets/Superficie afectada por incendios reportados, por jurisdicción.xlsx
+++ b/datasets/Superficie afectada por incendios reportados, por jurisdicción.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede4\OneDrive\Documents\UNRN\Ciencia de Datos - 25.1\Proyecto Final\Analisis_PrediccionIncendiosForestales\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA277ED-6117-473C-8E2A-CDA52A33BF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D66FDC-E9B4-4F21-AA55-B4FE06EDAB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
